--- a/academic-management/docs/diccionario_datos.xlsx
+++ b/academic-management/docs/diccionario_datos.xlsx
@@ -1,38 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL_3505\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JsLealM\academic-management-system\academic-management-system\academic-management\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF38D4A-7246-4933-8882-78C4A028386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DICCIONARIO DE DATOS" sheetId="12" r:id="rId1"/>
     <sheet name="STUDENT" sheetId="1" r:id="rId2"/>
-    <sheet name="TEACHER" sheetId="2" r:id="rId3"/>
+    <sheet name="PROFESSOR" sheetId="2" r:id="rId3"/>
     <sheet name="COURSE" sheetId="3" r:id="rId4"/>
     <sheet name="PREREQUISITE" sheetId="4" r:id="rId5"/>
-    <sheet name="ACADEMIC_PERIOD" sheetId="5" r:id="rId6"/>
+    <sheet name="PERIOD" sheetId="5" r:id="rId6"/>
     <sheet name="COURSE_ASSIGNMENT" sheetId="6" r:id="rId7"/>
     <sheet name="ENROLLMENT" sheetId="7" r:id="rId8"/>
     <sheet name="EVALUATION" sheetId="8" r:id="rId9"/>
-    <sheet name="EVALUATION_GRADE" sheetId="9" r:id="rId10"/>
+    <sheet name="GRADE_EVALUATION" sheetId="9" r:id="rId10"/>
     <sheet name="SCHEDULE" sheetId="13" r:id="rId11"/>
-    <sheet name="CLASSROOM" sheetId="14" r:id="rId12"/>
-    <sheet name="SYSTEM_USER" sheetId="15" r:id="rId13"/>
-    <sheet name="AUDIT_LOG" sheetId="16" r:id="rId14"/>
+    <sheet name="ROOM" sheetId="14" r:id="rId12"/>
+    <sheet name="STUDENT_AUDIT" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="205">
   <si>
     <t>Campo</t>
   </si>
@@ -216,9 +229,6 @@
     <t>UNIQUE NOT NULL</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>Briyith Samira Moreno Flórez
 Jeferson Andrés Martínez Pinzón
 Johan Sebastián Leal Méndez</t>
@@ -251,24 +261,12 @@
     <t>Segundo apellido del estudiante</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Estado del estudiante</t>
   </si>
   <si>
-    <t>teacher_id</t>
-  </si>
-  <si>
     <t>Identificador único del docente</t>
   </si>
   <si>
-    <t>knowledge_area</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
     <t>Primer nombre del docente</t>
   </si>
   <si>
@@ -281,9 +279,6 @@
     <t>Título académico del docente</t>
   </si>
   <si>
-    <t>Área de conocimiento del docente</t>
-  </si>
-  <si>
     <t>course_id</t>
   </si>
   <si>
@@ -377,15 +372,6 @@
     <t xml:space="preserve"> Facilitar el almacenamiento, organización y análisis de los procesos académicos, permitiendo el seguimiento de estudiantes, asignaciones docentes, evaluaciones, horarios y auditoría del sistema.</t>
   </si>
   <si>
-    <t xml:space="preserve"> STUDENT, TEACHER, COURSE, ENROLLMENT, EVALUATION, COURSE_ASSIGNMENT, SCHEDULE. Cada tabla tiene un identificador único para asegurar la integridad.</t>
-  </si>
-  <si>
-    <t>PREREQUISITE, EVALUATION_GRADE. Funcionan como tablas puente para representar relaciones muchos a muchos entre cursos y evaluaciones, o cursos y prerrequisitos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Almacena información de los estudiantes, incluyendo nombres, apellidos, fecha de nacimiento, correo electrónico y estado académico.</t>
-  </si>
-  <si>
     <t>Registra los datos personales y académicos de los docentes, como nombre, correo, título profesional y área de conocimiento.</t>
   </si>
   <si>
@@ -398,9 +384,6 @@
     <t>STUDENT</t>
   </si>
   <si>
-    <t>TEACHER</t>
-  </si>
-  <si>
     <t>COURSE</t>
   </si>
   <si>
@@ -410,9 +393,6 @@
     <t>Contiene los cursos ofrecidos, con detalles como nombre, número de créditos y tipo (obligatorio, electivo, etc.).</t>
   </si>
   <si>
-    <t>ACADEMIC_PERIOD</t>
-  </si>
-  <si>
     <t>COURSE_ASSIGNMENT</t>
   </si>
   <si>
@@ -422,21 +402,9 @@
     <t>EVALUATION</t>
   </si>
   <si>
-    <t>EVALUATION_GRADE</t>
-  </si>
-  <si>
     <t>SCHEDULE</t>
   </si>
   <si>
-    <t>CLASSROOM</t>
-  </si>
-  <si>
-    <t>SYSTEM_USER</t>
-  </si>
-  <si>
-    <t>AUDIT_LOG</t>
-  </si>
-  <si>
     <t>Relaciona cursos con profesores y períodos académicos, representando qué profesor enseña qué curso en qué período.</t>
   </si>
   <si>
@@ -455,15 +423,6 @@
     <t>Almacena la información de las aulas físicas, como su ubicación y capacidad.</t>
   </si>
   <si>
-    <t>Registra usuarios con acceso al sistema (ej. administrativos), incluyendo nombre, correo, cargo y rol asignado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guarda eventos de auditoría del sistema, indicando qué usuario hizo qué acción sobre qué tabla y cuándo, con valores anteriores y nuevos registrados.</t>
-  </si>
-  <si>
-    <t>ACADEMIC_PERIOD, CLASSROOM, SYSTEM_USER, AUDIT_LOG. Estas tablas ofrecen contexto adicional o permiten control de auditoría del sistema.</t>
-  </si>
-  <si>
     <t>evaluation_id</t>
   </si>
   <si>
@@ -515,9 +474,6 @@
     <t>session_type</t>
   </si>
   <si>
-    <t>classroom_id</t>
-  </si>
-  <si>
     <t>Día de la semana</t>
   </si>
   <si>
@@ -551,85 +507,211 @@
     <t>Ubicación del salón</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>log_id</t>
   </si>
   <si>
-    <t>Identificador del usuario</t>
-  </si>
-  <si>
-    <t>Nombre completo del usuario</t>
-  </si>
-  <si>
-    <t>Correo del usuario</t>
-  </si>
-  <si>
-    <t>Cargo del usuario</t>
-  </si>
-  <si>
-    <t>Rol del usuario</t>
-  </si>
-  <si>
     <t>Identificador del log</t>
   </si>
   <si>
     <t>Usuario que ejecutó la acción</t>
   </si>
   <si>
-    <t>table_name</t>
-  </si>
-  <si>
     <t>action_type</t>
   </si>
   <si>
     <t>action_timestamp</t>
   </si>
   <si>
-    <t>previous_values</t>
-  </si>
-  <si>
-    <t>new_values</t>
-  </si>
-  <si>
-    <t>affected_row_id</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>Tabla afectada</t>
-  </si>
-  <si>
     <t>Tipo de acción realizada</t>
   </si>
   <si>
     <t>Fecha y hora de la acción</t>
   </si>
   <si>
-    <t>Valores previos</t>
-  </si>
-  <si>
-    <t>Nuevos valores</t>
-  </si>
-  <si>
-    <t>ID de la fila afectada</t>
+    <t>STUDENT, STUDENT_AUDIT. Estas tablas ofrecen contexto adicional o permiten control de auditoría del sistema.</t>
+  </si>
+  <si>
+    <t>STUDENT, PROFESSOR, COURSE, ENROLLMENT, EVALUATION, COURSE_ASSIGNMENT, SCHEDULE, PERIOD, ROOM, NOTE_EVALUATION. Cada tabla tiene un identificador único para asegurar la integridad.</t>
+  </si>
+  <si>
+    <t>PREREQUISITE, COURSE y PROFESSOR. Funcionan como tablas puente para representar relaciones muchos a muchos entre cursos y prerrequisitos, o cursos y prerrequisitos. Relacion muchos a muchos entre profesor y course.</t>
+  </si>
+  <si>
+    <t>PROFESSOR</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>NOTE_EVALUATION</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>STUDENT_AUDIT</t>
+  </si>
+  <si>
+    <t>Guarda eventos de auditoría del sistema, indicando qué usuario hizo qué acción sobre la tabla estudiante y cuándo, con valores anteriores y nuevos registrados.</t>
+  </si>
+  <si>
+    <t>Almacena información de los estudiantes, incluyendo nombres, apellidos, fecha de nacimiento, correo electrónico y estado académico.</t>
+  </si>
+  <si>
+    <t>CHECK('ACTIVE', 'INACTIVE' , 'GRADUATED ', 'SUSPENDED')</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK(credits&gt;0)</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK('CORE', 'ELECTIVE', 'MANDATORY')</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK('PLANNED', 'ACTIVE', 'COMPLETED', 'CANCELLED')</t>
+  </si>
+  <si>
+    <t>professor_id</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK('ENROLLED', 'DROPPED', 'COMPLETED', 'FAILED')</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECH('EXAM','QUIZ','PROJECT','ASSIGNMENT','PRESENTATION')</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK('LECTURE','LAB','SEMINAR','TUTORIAL')</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK('INSERT','UPDATE','DELETE')</t>
+  </si>
+  <si>
+    <t>NOT NULL CHECK('MONDAY','TUESDAY','WEDNESDAY','THURSDAY','FRIDAY','SATURDAY')</t>
+  </si>
+  <si>
+    <t>old_first_name</t>
+  </si>
+  <si>
+    <t>old_middle_name</t>
+  </si>
+  <si>
+    <t>old_last_name</t>
+  </si>
+  <si>
+    <t>Apellido paterno antes de modificar</t>
+  </si>
+  <si>
+    <t>Segundo nombre antes de modificar</t>
+  </si>
+  <si>
+    <t>Primer nombre antes de modificar</t>
+  </si>
+  <si>
+    <t>Identificador estudiante modificado</t>
+  </si>
+  <si>
+    <t>old_maternal_surname</t>
+  </si>
+  <si>
+    <t>Apellido materno antes de modificar</t>
+  </si>
+  <si>
+    <t>old_birth_date</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento antes de modificar</t>
+  </si>
+  <si>
+    <t>old_email</t>
+  </si>
+  <si>
+    <t>Correo antes de modificar</t>
+  </si>
+  <si>
+    <t>old_status</t>
+  </si>
+  <si>
+    <t>Estado antes de modificar</t>
+  </si>
+  <si>
+    <t>new_first_name</t>
+  </si>
+  <si>
+    <t>new_middle_name</t>
+  </si>
+  <si>
+    <t>new_last_name</t>
+  </si>
+  <si>
+    <t>new_maternal_surname</t>
+  </si>
+  <si>
+    <t>new_birth_date</t>
+  </si>
+  <si>
+    <t>new_email</t>
+  </si>
+  <si>
+    <t>new_status</t>
+  </si>
+  <si>
+    <t>Primer nombre despues de modificar</t>
+  </si>
+  <si>
+    <t>Segundo nombre despues de modificar</t>
+  </si>
+  <si>
+    <t>Apellido paterno despues de modificar</t>
+  </si>
+  <si>
+    <t>Apellido materno despues de modificar</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento despues de modificar</t>
+  </si>
+  <si>
+    <t>Correo despues de modificar</t>
+  </si>
+  <si>
+    <t>Estado despues de modificar</t>
+  </si>
+  <si>
+    <t>operation_user</t>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_USER</t>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>session_username</t>
+  </si>
+  <si>
+    <t>DEFAULT SESSION_USER</t>
+  </si>
+  <si>
+    <t>Usuario en sesion que ejecutó la acción</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>GRADE_EVALUATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -877,7 +959,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -896,21 +977,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -918,20 +1002,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,6 +1016,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,7 +1111,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1063,9 +1150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1103,9 +1190,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,7 +1227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1175,7 +1262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1348,463 +1435,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>45809</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <f ca="1">TODAY()</f>
-        <v>45810</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+        <v>45821</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="35"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="41">
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="B24:E24"/>
@@ -1816,8 +1888,6 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
@@ -1850,19 +1920,18 @@
     <mergeCell ref="B11:H11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F16:H16" location="STUDENT!A1" display="STUDENT!A1"/>
-    <hyperlink ref="F17:H17" location="TEACHER!A1" display="TEACHER!A1"/>
-    <hyperlink ref="F18:H18" location="COURSE!A1" display="COURSE!A1"/>
-    <hyperlink ref="F19:H19" location="PREREQUISITE!A1" display="PREREQUISITE!A1"/>
-    <hyperlink ref="F20:H20" location="ACADEMIC_PERIOD!A1" display="ACADEMIC_PERIOD!A1"/>
-    <hyperlink ref="F21:H21" location="COURSE_ASSIGNMENT!A1" display="COURSE_ASSIGNMENT!A1"/>
-    <hyperlink ref="F22:H22" location="ENROLLMENT!A1" display="ENROLLMENT!A1"/>
-    <hyperlink ref="F23:H23" location="EVALUATION!A1" display="EVALUATION!A1"/>
-    <hyperlink ref="F24:H24" location="EVALUATION_GRADE!A1" display="EVALUATION_GRADE!A1"/>
-    <hyperlink ref="F25:H25" location="SCHEDULE!A1" display="SCHEDULE!A1"/>
-    <hyperlink ref="F26:H26" location="CLASSROOM!A1" display="CLASSROOM!A1"/>
-    <hyperlink ref="F27:H27" location="SYSTEM_USER!A1" display="SYSTEM_USER!A1"/>
-    <hyperlink ref="F28:H28" location="AUDIT_LOG!A1" display="AUDIT_LOG!A1"/>
+    <hyperlink ref="F16:H16" location="STUDENT!A1" display="STUDENT!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F17:H17" location="PROFESSOR!A1" display="PROFESSOR" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F18:H18" location="COURSE!A1" display="COURSE!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F19:H19" location="PREREQUISITE!A1" display="PREREQUISITE!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F20:H20" location="PERIOD!A1" display="PERIOD" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F21:H21" location="COURSE_ASSIGNMENT!A1" display="COURSE_ASSIGNMENT!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F22:H22" location="ENROLLMENT!A1" display="ENROLLMENT!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F23:H23" location="EVALUATION!A1" display="EVALUATION!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F24:H24" location="GRADE_EVALUATION!A1" display="GRADE_EVALUATION" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F25:H25" location="SCHEDULE!A1" display="SCHEDULE!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F26:H26" location="ROOM!A1" display="ROOM" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F27:H27" location="STUDENT_AUDIT!A1" display="STUDENT_AUDIT" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1871,26 +1940,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1907,72 +1974,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="E2" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E3" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="37">
-        <v>200</v>
-      </c>
-      <c r="D5" s="26" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>137</v>
+      <c r="E5" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1982,26 +2049,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2018,140 +2085,140 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="E2" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="E5" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="10">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>7</v>
+      <c r="C9" s="17">
+        <v>20</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2160,26 +2227,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2196,55 +2263,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="E2" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="E3" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
-        <v>100</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="10">
+        <v>255</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>156</v>
+      <c r="E4" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2253,24 +2320,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2287,317 +2356,378 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="E2" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25">
+        <v>255</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="25">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="25">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="25">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="25">
+        <v>25</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="25">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="25">
+        <v>255</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="25">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19">
         <v>100</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="D20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
-        <v>255</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="25">
-        <v>100</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25">
-        <v>100</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>166</v>
+      <c r="C21" s="19">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20">
-        <v>100</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="20">
-        <v>100</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="20">
-        <v>100</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20">
-        <v>100</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20">
-        <v>100</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -2607,99 +2737,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21">
-        <v>100</v>
+      <c r="C3" s="20">
+        <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21">
-        <v>100</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="20">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22">
-        <v>100</v>
+      <c r="C5" s="21">
+        <v>25</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22">
-        <v>100</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -2709,38 +2839,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>255</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="22">
-        <v>50</v>
+      <c r="C9" s="21">
+        <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2749,24 +2879,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="222" workbookViewId="0"/>
+    <sheetView zoomScale="222" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2783,12 +2915,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -2797,92 +2929,75 @@
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21">
-        <v>100</v>
+      <c r="C3" s="20">
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22">
-        <v>100</v>
+      <c r="C4" s="21">
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>255</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22">
-        <v>100</v>
+      <c r="C6" s="21">
+        <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22">
-        <v>200</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2892,24 +3007,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2926,80 +3043,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21">
-        <v>100</v>
+      <c r="C3" s="20">
+        <v>255</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20">
-        <v>100</v>
+      <c r="C5" s="19">
+        <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,26 +3118,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3044,38 +3154,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>76</v>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3084,26 +3194,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3120,72 +3230,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19">
-        <v>100</v>
+      <c r="C2" s="18">
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20">
-        <v>50</v>
+      <c r="C5" s="19">
+        <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3195,26 +3305,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3231,9 +3341,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -3245,58 +3355,58 @@
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18">
-        <v>100</v>
+      <c r="C5" s="17">
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3306,26 +3416,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.21875" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3342,12 +3452,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -3356,12 +3466,12 @@
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
@@ -3373,75 +3483,75 @@
         <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3450,26 +3560,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3486,43 +3596,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37">
-        <v>100</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
+      <c r="C3" s="23">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -3530,19 +3640,19 @@
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -3551,7 +3661,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
